--- a/app-RRHH/file/resumen_detalle_min.xlsx
+++ b/app-RRHH/file/resumen_detalle_min.xlsx
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="B1:AI268"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3:U268"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
@@ -688,13 +688,13 @@
     <col width="9.27" customWidth="1" style="17" min="18" max="18"/>
     <col width="4.73" customWidth="1" style="17" min="19" max="19"/>
     <col width="9.18" customWidth="1" style="17" min="20" max="20"/>
-    <col width="6.73" customWidth="1" style="17" min="21" max="21"/>
+    <col width="11.96" customWidth="1" style="17" min="21" max="21"/>
     <col width="10.85" customWidth="1" style="17" min="22" max="22"/>
     <col width="6.82" customWidth="1" style="17" min="23" max="25"/>
     <col width="9.27" customWidth="1" style="17" min="26" max="26"/>
     <col width="4.73" customWidth="1" style="17" min="27" max="27"/>
     <col width="11.7" customWidth="1" style="17" min="28" max="28"/>
-    <col width="6.73" customWidth="1" style="17" min="29" max="29"/>
+    <col width="10.29" customWidth="1" style="17" min="29" max="29"/>
     <col width="10.71" customWidth="1" style="17" min="30" max="30"/>
     <col width="6.82" customWidth="1" style="17" min="31" max="33"/>
     <col width="9.27" customWidth="1" style="17" min="34" max="34"/>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>666.26</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>5815.61</v>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>237.96</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>4976.96</v>
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>570.86</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>5323.61</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>527.7</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>5286.4</v>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>324.27</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>5061.47</v>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>318.42</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
         <v>5439.62</v>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>626.34</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
         <v>5345.24</v>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>503.04</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>5261.74</v>
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>505.72</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
         <v>5656.92</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>16.03</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
         <v>4767.83</v>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>1000.73</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
         <v>6120.68</v>
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>652.89</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
         <v>5771.79</v>
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>920.46</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
         <v>6042.86</v>
@@ -7315,7 +7315,7 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>293.44</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
         <v>5004.24</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="U80" t="n">
-        <v>404.2</v>
+        <v>6352.67</v>
       </c>
       <c r="V80" t="n">
         <v>12326.12</v>
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>4448.88</v>
       </c>
       <c r="AD80" t="n">
         <v>9527.58</v>
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="U81" t="n">
-        <v>390.07</v>
+        <v>4102.22</v>
       </c>
       <c r="V81" t="n">
         <v>10061.54</v>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>3360.09</v>
       </c>
       <c r="AD81" t="n">
         <v>8438.790000000001</v>
@@ -8090,7 +8090,7 @@
         <v>1532</v>
       </c>
       <c r="U82" t="n">
-        <v>527.26</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>6578.68</v>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="U84" t="n">
-        <v>332.04</v>
+        <v>11538.1</v>
       </c>
       <c r="V84" t="n">
         <v>17844.43</v>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>10579.67</v>
       </c>
       <c r="AD84" t="n">
         <v>16027.73</v>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>3007.12</v>
       </c>
       <c r="AD86" t="n">
         <v>8085.82</v>
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="U88" t="n">
-        <v>323.3</v>
+        <v>6212.08</v>
       </c>
       <c r="V88" t="n">
         <v>13522.26</v>
@@ -8676,7 +8676,7 @@
         </is>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>6158.64</v>
       </c>
       <c r="AD88" t="n">
         <v>12530.1</v>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="U94" t="n">
-        <v>242.47</v>
+        <v>836.3099999999999</v>
       </c>
       <c r="V94" t="n">
         <v>6648.03</v>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>-323.19</v>
       </c>
       <c r="AD94" t="n">
         <v>946.48</v>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="U95" t="n">
-        <v>207.12</v>
+        <v>520.52</v>
       </c>
       <c r="V95" t="n">
         <v>5517.78</v>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>-257.08</v>
       </c>
       <c r="AD95" t="n">
         <v>752.89</v>
@@ -9380,7 +9380,7 @@
         </is>
       </c>
       <c r="U96" t="n">
-        <v>408.25</v>
+        <v>13719.94</v>
       </c>
       <c r="V96" t="n">
         <v>20102.48</v>
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>9440.370000000001</v>
       </c>
       <c r="AD96" t="n">
         <v>14857.47</v>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="U97" t="n">
-        <v>619.02</v>
+        <v>9184.27</v>
       </c>
       <c r="V97" t="n">
         <v>15777.58</v>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>10473.24</v>
       </c>
       <c r="AD97" t="n">
         <v>15395.07</v>
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>-1351.52</v>
       </c>
       <c r="V98" t="n">
         <v>3958.03</v>
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>-126.99</v>
       </c>
       <c r="AD98" t="n">
         <v>1402.39</v>
@@ -9681,7 +9681,7 @@
         </is>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="AD99" t="n">
         <v>3567.75</v>
@@ -9780,7 +9780,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>-448.06</v>
       </c>
       <c r="AD100" t="n">
         <v>1312.17</v>
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>17560.1</v>
       </c>
       <c r="V101" t="n">
         <v>23008.16</v>
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>10126.22</v>
       </c>
       <c r="AD101" t="n">
         <v>15574.28</v>
@@ -9938,7 +9938,7 @@
         <v>1838.4</v>
       </c>
       <c r="U102" t="n">
-        <v>525.78</v>
+        <v>0</v>
       </c>
       <c r="V102" t="n">
         <v>7917.7</v>
@@ -10025,7 +10025,7 @@
         </is>
       </c>
       <c r="U103" t="n">
-        <v>613</v>
+        <v>3402.61</v>
       </c>
       <c r="V103" t="n">
         <v>9989.9</v>
@@ -10041,7 +10041,7 @@
         </is>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>13510.98</v>
       </c>
       <c r="AD103" t="n">
         <v>18680.44</v>
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="U104" t="n">
-        <v>352.97</v>
+        <v>4541.54</v>
       </c>
       <c r="V104" t="n">
         <v>10868.8</v>
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>2268.86</v>
       </c>
       <c r="AD104" t="n">
         <v>7716.92</v>
@@ -10199,7 +10199,7 @@
         </is>
       </c>
       <c r="U105" t="n">
-        <v>390.93</v>
+        <v>1614.89</v>
       </c>
       <c r="V105" t="n">
         <v>5287.04</v>
@@ -10211,7 +10211,7 @@
         <v>1238.2</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>2434.32</v>
       </c>
       <c r="AD105" t="n">
         <v>4322.57</v>
@@ -10282,7 +10282,7 @@
         <v>1981.11</v>
       </c>
       <c r="U106" t="n">
-        <v>594.83</v>
+        <v>6478.62</v>
       </c>
       <c r="V106" t="n">
         <v>10849.95</v>
@@ -10294,7 +10294,7 @@
         <v>1238.2</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>644.5700000000001</v>
       </c>
       <c r="AD106" t="n">
         <v>923.16</v>
@@ -10365,7 +10365,7 @@
         <v>2606.51</v>
       </c>
       <c r="U107" t="n">
-        <v>336.78</v>
+        <v>9637.309999999999</v>
       </c>
       <c r="V107" t="n">
         <v>16960.97</v>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>5925.8</v>
       </c>
       <c r="AD107" t="n">
         <v>9726.950000000001</v>
@@ -10452,7 +10452,7 @@
         <v>1981.11</v>
       </c>
       <c r="U108" t="n">
-        <v>407.39</v>
+        <v>446.29</v>
       </c>
       <c r="V108" t="n">
         <v>5209.95</v>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>2166.48</v>
       </c>
       <c r="AD108" t="n">
         <v>6126.73</v>
@@ -10539,7 +10539,7 @@
         <v>1485.84</v>
       </c>
       <c r="U109" t="n">
-        <v>476.13</v>
+        <v>11129.93</v>
       </c>
       <c r="V109" t="n">
         <v>16218.34</v>
@@ -10555,7 +10555,7 @@
         </is>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>7258.99</v>
       </c>
       <c r="AD109" t="n">
         <v>12707.05</v>
@@ -10626,7 +10626,7 @@
         <v>1238.2</v>
       </c>
       <c r="U110" t="n">
-        <v>285.54</v>
+        <v>3249.26</v>
       </c>
       <c r="V110" t="n">
         <v>7868.48</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>3911.17</v>
       </c>
       <c r="AD110" t="n">
         <v>9359.23</v>
@@ -10713,7 +10713,7 @@
         <v>1238.2</v>
       </c>
       <c r="U111" t="n">
-        <v>321.7</v>
+        <v>2104.82</v>
       </c>
       <c r="V111" t="n">
         <v>6760.2</v>
@@ -10729,7 +10729,7 @@
         </is>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>-1407.87</v>
       </c>
       <c r="AD111" t="n">
         <v>4040.19</v>
@@ -10800,7 +10800,7 @@
         <v>1238.2</v>
       </c>
       <c r="U112" t="n">
-        <v>195.83</v>
+        <v>2266.74</v>
       </c>
       <c r="V112" t="n">
         <v>5465.19</v>
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="U113" t="n">
-        <v>524.6</v>
+        <v>12248.91</v>
       </c>
       <c r="V113" t="n">
         <v>18747.8</v>
@@ -10907,7 +10907,7 @@
         <v>1485.84</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>8164.86</v>
       </c>
       <c r="AD113" t="n">
         <v>12250.9</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="U114" t="n">
-        <v>254.1</v>
+        <v>3359.26</v>
       </c>
       <c r="V114" t="n">
         <v>8777.58</v>
@@ -10994,7 +10994,7 @@
         <v>1284.36</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>595.85</v>
       </c>
       <c r="AD114" t="n">
         <v>4127.85</v>
@@ -11069,7 +11069,7 @@
         </is>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>9526.209999999999</v>
       </c>
       <c r="V115" t="n">
         <v>16141.2</v>
@@ -11081,7 +11081,7 @@
         <v>1485.84</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>533.3</v>
       </c>
       <c r="AD115" t="n">
         <v>4493.55</v>
@@ -11156,7 +11156,7 @@
         </is>
       </c>
       <c r="U116" t="n">
-        <v>170.83</v>
+        <v>4014.75</v>
       </c>
       <c r="V116" t="n">
         <v>9495.129999999999</v>
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>-822.65</v>
       </c>
       <c r="AD116" t="n">
         <v>4256.05</v>
@@ -11247,7 +11247,7 @@
         </is>
       </c>
       <c r="U117" t="n">
-        <v>767.4299999999999</v>
+        <v>11544.5</v>
       </c>
       <c r="V117" t="n">
         <v>18286.22</v>
@@ -11263,7 +11263,7 @@
         </is>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>8996.700000000001</v>
       </c>
       <c r="AD117" t="n">
         <v>14444.76</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="U118" t="n">
-        <v>338.46</v>
+        <v>4043.5</v>
       </c>
       <c r="V118" t="n">
         <v>11368.84</v>
@@ -11354,7 +11354,7 @@
         </is>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>751.1</v>
       </c>
       <c r="AD118" t="n">
         <v>7122.56</v>
@@ -11429,7 +11429,7 @@
         </is>
       </c>
       <c r="U119" t="n">
-        <v>270.63</v>
+        <v>2664.21</v>
       </c>
       <c r="V119" t="n">
         <v>7390.24</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>534.33</v>
       </c>
       <c r="AD119" t="n">
         <v>4597.29</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="U121" t="n">
-        <v>230</v>
+        <v>2520.04</v>
       </c>
       <c r="V121" t="n">
         <v>8319.290000000001</v>
@@ -11623,7 +11623,7 @@
         </is>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>882.89</v>
       </c>
       <c r="AD121" t="n">
         <v>5701.88</v>
@@ -11698,7 +11698,7 @@
         </is>
       </c>
       <c r="U122" t="n">
-        <v>268.24</v>
+        <v>3997.93</v>
       </c>
       <c r="V122" t="n">
         <v>9835.42</v>
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>3904.89</v>
       </c>
       <c r="AD122" t="n">
         <v>8723.879999999999</v>
@@ -12074,7 +12074,7 @@
         </is>
       </c>
       <c r="AC126" t="n">
-        <v>564.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="AD126" t="n">
         <v>5305.99</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="U149" t="n">
-        <v>252.61</v>
+        <v>2826.47</v>
       </c>
       <c r="V149" t="n">
         <v>7690.84</v>
@@ -15329,7 +15329,7 @@
         </is>
       </c>
       <c r="AC163" t="n">
-        <v>1168.84</v>
+        <v>0</v>
       </c>
       <c r="AD163" t="n">
         <v>5912.64</v>
@@ -19423,7 +19423,7 @@
         <v>2971.67</v>
       </c>
       <c r="U209" t="n">
-        <v>244.82</v>
+        <v>922.65</v>
       </c>
       <c r="V209" t="n">
         <v>7358.45</v>
@@ -19439,7 +19439,7 @@
         </is>
       </c>
       <c r="AC209" t="n">
-        <v>0</v>
+        <v>104.12</v>
       </c>
       <c r="AD209" t="n">
         <v>2704.33</v>
@@ -20483,7 +20483,7 @@
         <v>2971.67</v>
       </c>
       <c r="U221" t="n">
-        <v>260.41</v>
+        <v>503.39</v>
       </c>
       <c r="V221" t="n">
         <v>6707.14</v>
@@ -20495,7 +20495,7 @@
         <v>1485.84</v>
       </c>
       <c r="AC221" t="n">
-        <v>0</v>
+        <v>659.75</v>
       </c>
       <c r="AD221" t="n">
         <v>1278.85</v>
@@ -21211,7 +21211,7 @@
         </is>
       </c>
       <c r="AC229" t="n">
-        <v>1288.38</v>
+        <v>0</v>
       </c>
       <c r="AD229" t="n">
         <v>6392.28</v>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="U230" t="n">
-        <v>226.19</v>
+        <v>-1469.05</v>
       </c>
       <c r="V230" t="n">
         <v>4528.39</v>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="AC230" t="n">
-        <v>0</v>
+        <v>735.83</v>
       </c>
       <c r="AD230" t="n">
         <v>5929.95</v>
@@ -21749,7 +21749,7 @@
         </is>
       </c>
       <c r="AC235" t="n">
-        <v>893.7</v>
+        <v>0</v>
       </c>
       <c r="AD235" t="n">
         <v>6006.65</v>
@@ -22825,7 +22825,7 @@
         </is>
       </c>
       <c r="U247" t="n">
-        <v>256.21</v>
+        <v>2784.8</v>
       </c>
       <c r="V247" t="n">
         <v>6291.27</v>
@@ -22841,7 +22841,7 @@
         </is>
       </c>
       <c r="AC247" t="n">
-        <v>0</v>
+        <v>-1342.69</v>
       </c>
       <c r="AD247" t="n">
         <v>4105.37</v>
@@ -23806,7 +23806,7 @@
         <v>1238.2</v>
       </c>
       <c r="U258" t="n">
-        <v>363.66</v>
+        <v>1943.63</v>
       </c>
       <c r="V258" t="n">
         <v>6888.61</v>
@@ -23822,7 +23822,7 @@
         </is>
       </c>
       <c r="AC258" t="n">
-        <v>0</v>
+        <v>1889.46</v>
       </c>
       <c r="AD258" t="n">
         <v>7461.34</v>
@@ -23913,7 +23913,7 @@
         </is>
       </c>
       <c r="AC259" t="n">
-        <v>64.22</v>
+        <v>0</v>
       </c>
       <c r="AD259" t="n">
         <v>5166.32</v>
@@ -24746,7 +24746,7 @@
   <dimension ref="C4:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="U3:U268 H10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.6328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>

--- a/app-RRHH/file/resumen_detalle_min.xlsx
+++ b/app-RRHH/file/resumen_detalle_min.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,35 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$B$2:$AH$268</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -60,14 +44,6 @@
       <i val="1"/>
       <color rgb="FFFF0000"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -114,8 +90,18 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
@@ -127,30 +113,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5998"/>
-        <bgColor rgb="FFBDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5998"/>
+        <fgColor theme="4" tint="0.5997802667317729"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5998"/>
+        <fgColor theme="7" tint="0.5997802667317729"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5997802667317729"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -159,243 +145,138 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD7EE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -454,88 +335,68 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="O2" authorId="0" shapeId="0">
-      <text>
-        <t>Autor:
-incluir tantos como el usuario agregue, después definimos la cantidad límite razonable.</t>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
-      <text>
-        <t>Autor:
-incluir tantos como el usuario agregue, después definimos la cantidad límite razonable.</t>
-      </text>
-    </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
-      <text>
-        <t>Autor:
-incluir tantos como el usuario agregue, después definimos la cantidad límite razonable.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -567,7 +428,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -591,7 +452,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -651,280 +512,274 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="B1:AI268"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="9.09" customWidth="1" style="16" min="2" max="2"/>
-    <col width="11.45" customWidth="1" style="17" min="3" max="3"/>
-    <col width="12.45" customWidth="1" style="18" min="4" max="4"/>
-    <col width="28.54" customWidth="1" style="18" min="5" max="5"/>
-    <col width="9.09" customWidth="1" style="17" min="6" max="8"/>
-    <col width="5.27" customWidth="1" style="17" min="9" max="9"/>
-    <col width="8.48" customWidth="1" style="17" min="10" max="10"/>
-    <col width="4.73" customWidth="1" style="17" min="11" max="11"/>
-    <col width="10.43" customWidth="1" style="17" min="12" max="12"/>
-    <col width="9.630000000000001" customWidth="1" style="17" min="13" max="13"/>
-    <col width="8.76" customWidth="1" style="17" min="14" max="14"/>
-    <col width="6.82" customWidth="1" style="17" min="15" max="17"/>
-    <col width="9.27" customWidth="1" style="17" min="18" max="18"/>
-    <col width="4.73" customWidth="1" style="17" min="19" max="19"/>
-    <col width="9.18" customWidth="1" style="17" min="20" max="20"/>
-    <col width="11.96" customWidth="1" style="17" min="21" max="21"/>
-    <col width="10.85" customWidth="1" style="17" min="22" max="22"/>
-    <col width="6.82" customWidth="1" style="17" min="23" max="25"/>
-    <col width="9.27" customWidth="1" style="17" min="26" max="26"/>
-    <col width="4.73" customWidth="1" style="17" min="27" max="27"/>
-    <col width="11.7" customWidth="1" style="17" min="28" max="28"/>
-    <col width="10.29" customWidth="1" style="17" min="29" max="29"/>
-    <col width="10.71" customWidth="1" style="17" min="30" max="30"/>
-    <col width="6.82" customWidth="1" style="17" min="31" max="33"/>
-    <col width="9.27" customWidth="1" style="17" min="34" max="34"/>
-    <col width="13.45" customWidth="1" style="17" min="35" max="35"/>
-    <col width="11.54" customWidth="1" style="18" min="16373" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="11.42578125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.42578125" customWidth="1" style="3" min="4" max="4"/>
+    <col width="28.5703125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="2" min="6" max="8"/>
+    <col width="5.28515625" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col width="4.7109375" customWidth="1" style="2" min="11" max="11"/>
+    <col width="9" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
+    <col width="9.5703125" customWidth="1" style="2" min="13" max="13"/>
+    <col width="8.7109375" customWidth="1" style="2" min="14" max="14"/>
+    <col width="6.85546875" customWidth="1" style="2" min="15" max="17"/>
+    <col width="9.28515625" customWidth="1" style="2" min="18" max="18"/>
+    <col width="4.7109375" customWidth="1" style="2" min="19" max="19"/>
+    <col width="9" bestFit="1" customWidth="1" style="2" min="20" max="22"/>
+    <col width="6.85546875" customWidth="1" style="2" min="23" max="25"/>
+    <col width="9.28515625" customWidth="1" style="2" min="26" max="26"/>
+    <col width="4.7109375" customWidth="1" style="2" min="27" max="27"/>
+    <col width="9" bestFit="1" customWidth="1" style="2" min="28" max="28"/>
+    <col width="10.28515625" customWidth="1" style="2" min="29" max="29"/>
+    <col width="10.7109375" customWidth="1" style="2" min="30" max="30"/>
+    <col width="6.85546875" customWidth="1" style="2" min="31" max="33"/>
+    <col width="8.5703125" customWidth="1" style="2" min="34" max="34"/>
+    <col width="9.28515625" customWidth="1" style="2" min="35" max="35"/>
+    <col width="11.5703125" customWidth="1" style="3" min="16373" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="19">
-      <c r="B1" s="18" t="n"/>
-      <c r="C1" s="18" t="n"/>
-      <c r="F1" s="18" t="n"/>
-      <c r="G1" s="18" t="n"/>
-      <c r="H1" s="18" t="n"/>
-      <c r="I1" s="20" t="inlineStr">
+    <row r="1" ht="21.75" customHeight="1" s="3">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>MES -1</t>
         </is>
       </c>
-      <c r="J1" s="21" t="n"/>
-      <c r="K1" s="22" t="inlineStr">
+      <c r="J1" s="16" t="n"/>
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>MES 1</t>
         </is>
       </c>
-      <c r="L1" s="23" t="n"/>
-      <c r="M1" s="23" t="n"/>
-      <c r="N1" s="23" t="n"/>
-      <c r="O1" s="23" t="n"/>
-      <c r="P1" s="23" t="n"/>
-      <c r="Q1" s="23" t="n"/>
-      <c r="R1" s="21" t="n"/>
-      <c r="S1" s="22" t="inlineStr">
+      <c r="L1" s="18" t="n"/>
+      <c r="M1" s="18" t="n"/>
+      <c r="N1" s="18" t="n"/>
+      <c r="O1" s="18" t="n"/>
+      <c r="P1" s="18" t="n"/>
+      <c r="Q1" s="18" t="n"/>
+      <c r="R1" s="16" t="n"/>
+      <c r="S1" s="17" t="inlineStr">
         <is>
           <t>MES 2</t>
         </is>
       </c>
-      <c r="T1" s="23" t="n"/>
-      <c r="U1" s="23" t="n"/>
-      <c r="V1" s="23" t="n"/>
-      <c r="W1" s="23" t="n"/>
-      <c r="X1" s="23" t="n"/>
-      <c r="Y1" s="23" t="n"/>
-      <c r="Z1" s="21" t="n"/>
-      <c r="AA1" s="22" t="inlineStr">
+      <c r="T1" s="18" t="n"/>
+      <c r="U1" s="18" t="n"/>
+      <c r="V1" s="18" t="n"/>
+      <c r="W1" s="18" t="n"/>
+      <c r="X1" s="18" t="n"/>
+      <c r="Y1" s="18" t="n"/>
+      <c r="Z1" s="16" t="n"/>
+      <c r="AA1" s="17" t="inlineStr">
         <is>
           <t>MES 3</t>
         </is>
       </c>
-      <c r="AB1" s="23" t="n"/>
-      <c r="AC1" s="23" t="n"/>
-      <c r="AD1" s="23" t="n"/>
-      <c r="AE1" s="23" t="n"/>
-      <c r="AF1" s="23" t="n"/>
-      <c r="AG1" s="23" t="n"/>
-      <c r="AH1" s="21" t="n"/>
-      <c r="AI1" s="24" t="inlineStr">
+      <c r="AB1" s="18" t="n"/>
+      <c r="AC1" s="18" t="n"/>
+      <c r="AD1" s="18" t="n"/>
+      <c r="AE1" s="18" t="n"/>
+      <c r="AF1" s="18" t="n"/>
+      <c r="AG1" s="18" t="n"/>
+      <c r="AH1" s="16" t="n"/>
+    </row>
+    <row r="2" ht="209.25" customHeight="1" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Carnet de Identidad</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre y Apellidos </t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>Escala Salarial</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>Tarifa Horaria</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>¿Incluido sist pago destajo¿</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>DIAS VAC  del periodo</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Monto VAC  PERÍODO</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>DIAS VAC  del periodo</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>Monto VAC  PERÍODO</t>
+        </is>
+      </c>
+      <c r="M2" s="10" t="inlineStr">
+        <is>
+          <t>Sal por destajo</t>
+        </is>
+      </c>
+      <c r="N2" s="10" t="inlineStr">
+        <is>
+          <t>Sal devengado</t>
+        </is>
+      </c>
+      <c r="O2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="P2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="Q2" s="11" t="inlineStr">
+        <is>
+          <t>……….</t>
+        </is>
+      </c>
+      <c r="R2" s="10" t="inlineStr">
+        <is>
+          <t>Salario de cálculo mes 1</t>
+        </is>
+      </c>
+      <c r="S2" s="9" t="inlineStr">
+        <is>
+          <t>DIAS VAC  del periodo</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="inlineStr">
+        <is>
+          <t>Monto VAC  PERÍODO</t>
+        </is>
+      </c>
+      <c r="U2" s="12" t="inlineStr">
+        <is>
+          <t>Sal por destajo</t>
+        </is>
+      </c>
+      <c r="V2" s="12" t="inlineStr">
+        <is>
+          <t>Sal devengado</t>
+        </is>
+      </c>
+      <c r="W2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="X2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="Y2" s="11" t="inlineStr">
+        <is>
+          <t>……….</t>
+        </is>
+      </c>
+      <c r="Z2" s="10" t="inlineStr">
+        <is>
+          <t>Salario de cálculo mes 2</t>
+        </is>
+      </c>
+      <c r="AA2" s="9" t="inlineStr">
+        <is>
+          <t>DIAS VAC DENTRO DEL PERÍODO</t>
+        </is>
+      </c>
+      <c r="AB2" s="9" t="inlineStr">
+        <is>
+          <t>MONTO VAC DENTRO DEL PERÍODO</t>
+        </is>
+      </c>
+      <c r="AC2" s="10" t="inlineStr">
+        <is>
+          <t>Sal por destajo</t>
+        </is>
+      </c>
+      <c r="AD2" s="10" t="inlineStr">
+        <is>
+          <t>Sal devengado</t>
+        </is>
+      </c>
+      <c r="AE2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="AF2" s="11" t="inlineStr">
+        <is>
+          <t>Devengado por otros conceptos aprobados.</t>
+        </is>
+      </c>
+      <c r="AG2" s="11" t="inlineStr">
+        <is>
+          <t>……….</t>
+        </is>
+      </c>
+      <c r="AH2" s="10" t="inlineStr">
+        <is>
+          <t>Salario de cálculo mes 3</t>
+        </is>
+      </c>
+      <c r="AI2" s="13" t="inlineStr">
         <is>
           <t>Sal promedio del trimestre</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="144.75" customHeight="1" s="19">
-      <c r="B2" s="25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C2" s="26" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="D2" s="26" t="inlineStr">
-        <is>
-          <t>Carnet de Identidad</t>
-        </is>
-      </c>
-      <c r="E2" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nombre y Apellidos </t>
-        </is>
-      </c>
-      <c r="F2" s="28" t="inlineStr">
-        <is>
-          <t>Escala Salarial</t>
-        </is>
-      </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>Tarifa Horaria</t>
-        </is>
-      </c>
-      <c r="H2" s="28" t="inlineStr">
-        <is>
-          <t>¿Incluido sist pago destajo¿</t>
-        </is>
-      </c>
-      <c r="I2" s="29" t="inlineStr">
-        <is>
-          <t>DIAS VAC  del periodo</t>
-        </is>
-      </c>
-      <c r="J2" s="29" t="inlineStr">
-        <is>
-          <t>Monto VAC  PERÍODO</t>
-        </is>
-      </c>
-      <c r="K2" s="30" t="inlineStr">
-        <is>
-          <t>DIAS VAC  del periodo</t>
-        </is>
-      </c>
-      <c r="L2" s="30" t="inlineStr">
-        <is>
-          <t>Monto VAC  PERÍODO</t>
-        </is>
-      </c>
-      <c r="M2" s="31" t="inlineStr">
-        <is>
-          <t>Sal por destajo</t>
-        </is>
-      </c>
-      <c r="N2" s="31" t="inlineStr">
-        <is>
-          <t>Sal devengado</t>
-        </is>
-      </c>
-      <c r="O2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="P2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="Q2" s="32" t="inlineStr">
-        <is>
-          <t>……….</t>
-        </is>
-      </c>
-      <c r="R2" s="24" t="inlineStr">
-        <is>
-          <t>Salario de cálculo mes 1</t>
-        </is>
-      </c>
-      <c r="S2" s="30" t="inlineStr">
-        <is>
-          <t>DIAS VAC  del periodo</t>
-        </is>
-      </c>
-      <c r="T2" s="30" t="inlineStr">
-        <is>
-          <t>Monto VAC  PERÍODO</t>
-        </is>
-      </c>
-      <c r="U2" s="31" t="inlineStr">
-        <is>
-          <t>Sal por destajo</t>
-        </is>
-      </c>
-      <c r="V2" s="31" t="inlineStr">
-        <is>
-          <t>Sal devengado</t>
-        </is>
-      </c>
-      <c r="W2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="X2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="Y2" s="32" t="inlineStr">
-        <is>
-          <t>……….</t>
-        </is>
-      </c>
-      <c r="Z2" s="24" t="inlineStr">
-        <is>
-          <t>Salario de cálculo mes 2</t>
-        </is>
-      </c>
-      <c r="AA2" s="30" t="inlineStr">
-        <is>
-          <t>DIAS VAC DENTRO DEL PERÍODO</t>
-        </is>
-      </c>
-      <c r="AB2" s="30" t="inlineStr">
-        <is>
-          <t>MONTO VAC DENTRO DEL PERÍODO</t>
-        </is>
-      </c>
-      <c r="AC2" s="31" t="inlineStr">
-        <is>
-          <t>Sal por destajo</t>
-        </is>
-      </c>
-      <c r="AD2" s="31" t="inlineStr">
-        <is>
-          <t>Sal devengado</t>
-        </is>
-      </c>
-      <c r="AE2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="AF2" s="32" t="inlineStr">
-        <is>
-          <t>Devengado por otros conceptos aprobados.</t>
-        </is>
-      </c>
-      <c r="AG2" s="32" t="inlineStr">
-        <is>
-          <t>……….</t>
-        </is>
-      </c>
-      <c r="AH2" s="24" t="inlineStr">
-        <is>
-          <t>Salario de cálculo mes 3</t>
-        </is>
-      </c>
-      <c r="AI2" s="33" t="n"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" s="19">
+    <row r="3" ht="17.25" customHeight="1" s="3">
       <c r="B3" t="n">
         <v>1</v>
       </c>
@@ -1011,7 +866,7 @@
         <v>6302.2</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="19">
+    <row r="4" ht="18.75" customHeight="1" s="3">
       <c r="B4" t="n">
         <v>2</v>
       </c>
@@ -1098,7 +953,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="19">
+    <row r="5" ht="15" customHeight="1" s="3">
       <c r="B5" t="n">
         <v>3</v>
       </c>
@@ -1197,7 +1052,7 @@
         <v>3185.73</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="19">
+    <row r="6" ht="15" customHeight="1" s="3">
       <c r="B6" t="n">
         <v>4</v>
       </c>
@@ -1288,7 +1143,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="19">
+    <row r="7" ht="15" customHeight="1" s="3">
       <c r="B7" t="n">
         <v>5</v>
       </c>
@@ -1375,7 +1230,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="19">
+    <row r="8" ht="15" customHeight="1" s="3">
       <c r="B8" t="n">
         <v>6</v>
       </c>
@@ -1462,7 +1317,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="19">
+    <row r="9" ht="15" customHeight="1" s="3">
       <c r="B9" t="n">
         <v>7</v>
       </c>
@@ -1553,7 +1408,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="19">
+    <row r="10" ht="15" customHeight="1" s="3">
       <c r="B10" t="n">
         <v>8</v>
       </c>
@@ -1648,7 +1503,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="19">
+    <row r="11" ht="15" customHeight="1" s="3">
       <c r="B11" t="n">
         <v>9</v>
       </c>
@@ -1743,7 +1598,7 @@
         <v>5448.06</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="19">
+    <row r="12" ht="15" customHeight="1" s="3">
       <c r="B12" t="n">
         <v>10</v>
       </c>
@@ -1834,7 +1689,7 @@
         <v>7294.86</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="19">
+    <row r="13" ht="15" customHeight="1" s="3">
       <c r="B13" t="n">
         <v>11</v>
       </c>
@@ -1925,7 +1780,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="19">
+    <row r="14" ht="15" customHeight="1" s="3">
       <c r="B14" t="n">
         <v>12</v>
       </c>
@@ -2012,7 +1867,7 @@
         <v>5660.02</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="19">
+    <row r="15" ht="15" customHeight="1" s="3">
       <c r="B15" t="n">
         <v>13</v>
       </c>
@@ -2107,7 +1962,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="19">
+    <row r="16" ht="15" customHeight="1" s="3">
       <c r="B16" t="n">
         <v>14</v>
       </c>
@@ -2202,7 +2057,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="19">
+    <row r="17" ht="15" customHeight="1" s="3">
       <c r="B17" t="n">
         <v>15</v>
       </c>
@@ -2297,7 +2152,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="19">
+    <row r="18" ht="15" customHeight="1" s="3">
       <c r="B18" t="n">
         <v>16</v>
       </c>
@@ -2380,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="19">
+    <row r="19" ht="15" customHeight="1" s="3">
       <c r="B19" t="n">
         <v>17</v>
       </c>
@@ -2467,7 +2322,7 @@
         <v>7294.86</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="19">
+    <row r="20" ht="15" customHeight="1" s="3">
       <c r="B20" t="n">
         <v>18</v>
       </c>
@@ -2554,7 +2409,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="19">
+    <row r="21" ht="15" customHeight="1" s="3">
       <c r="B21" t="n">
         <v>19</v>
       </c>
@@ -2645,7 +2500,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="19">
+    <row r="22" ht="15" customHeight="1" s="3">
       <c r="B22" t="n">
         <v>20</v>
       </c>
@@ -2740,7 +2595,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="19">
+    <row r="23" ht="15" customHeight="1" s="3">
       <c r="B23" t="n">
         <v>21</v>
       </c>
@@ -2827,7 +2682,7 @@
         <v>4339.98</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="19">
+    <row r="24" ht="15" customHeight="1" s="3">
       <c r="B24" t="n">
         <v>22</v>
       </c>
@@ -2914,7 +2769,7 @@
         <v>3785.94</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="19">
+    <row r="25" ht="15" customHeight="1" s="3">
       <c r="B25" t="n">
         <v>23</v>
       </c>
@@ -3009,7 +2864,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="19">
+    <row r="26" ht="15" customHeight="1" s="3">
       <c r="B26" t="n">
         <v>24</v>
       </c>
@@ -3100,7 +2955,7 @@
         <v>3920.78</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="19">
+    <row r="27" ht="15" customHeight="1" s="3">
       <c r="B27" t="n">
         <v>25</v>
       </c>
@@ -3191,7 +3046,7 @@
         <v>4339.98</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="19">
+    <row r="28" ht="15" customHeight="1" s="3">
       <c r="B28" t="n">
         <v>26</v>
       </c>
@@ -3282,7 +3137,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="19">
+    <row r="29" ht="15" customHeight="1" s="3">
       <c r="B29" t="n">
         <v>27</v>
       </c>
@@ -3369,7 +3224,7 @@
         <v>7294.86</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="19">
+    <row r="30" ht="15" customHeight="1" s="3">
       <c r="B30" t="n">
         <v>28</v>
       </c>
@@ -3464,7 +3319,7 @@
         <v>5448.06</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="19">
+    <row r="31" ht="15" customHeight="1" s="3">
       <c r="B31" t="n">
         <v>29</v>
       </c>
@@ -3555,7 +3410,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="19">
+    <row r="32" ht="15" customHeight="1" s="3">
       <c r="B32" t="n">
         <v>30</v>
       </c>
@@ -3654,7 +3509,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="19">
+    <row r="33" ht="15" customHeight="1" s="3">
       <c r="B33" t="n">
         <v>31</v>
       </c>
@@ -3745,7 +3600,7 @@
         <v>5448.06</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="19">
+    <row r="34" ht="15" customHeight="1" s="3">
       <c r="B34" t="n">
         <v>32</v>
       </c>
@@ -3832,7 +3687,7 @@
         <v>5249.21</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="19">
+    <row r="35" ht="15" customHeight="1" s="3">
       <c r="B35" t="n">
         <v>33</v>
       </c>
@@ -3923,7 +3778,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="19">
+    <row r="36" ht="15" customHeight="1" s="3">
       <c r="B36" t="n">
         <v>34</v>
       </c>
@@ -4022,7 +3877,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="19">
+    <row r="37" ht="15" customHeight="1" s="3">
       <c r="B37" t="n">
         <v>35</v>
       </c>
@@ -4113,7 +3968,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="19">
+    <row r="38" ht="15" customHeight="1" s="3">
       <c r="B38" t="n">
         <v>36</v>
       </c>
@@ -4200,7 +4055,7 @@
         <v>2859.92</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="19">
+    <row r="39" ht="15" customHeight="1" s="3">
       <c r="B39" t="n">
         <v>37</v>
       </c>
@@ -4291,7 +4146,7 @@
         <v>5078.7</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="19">
+    <row r="40" ht="15" customHeight="1" s="3">
       <c r="B40" t="n">
         <v>38</v>
       </c>
@@ -4378,7 +4233,7 @@
         <v>6025.18</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="19">
+    <row r="41" ht="15" customHeight="1" s="3">
       <c r="B41" t="n">
         <v>39</v>
       </c>
@@ -4465,7 +4320,7 @@
         <v>4778.59</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="19">
+    <row r="42" ht="15" customHeight="1" s="3">
       <c r="B42" t="n">
         <v>40</v>
       </c>
@@ -4560,7 +4415,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="19">
+    <row r="43" ht="15" customHeight="1" s="3">
       <c r="B43" t="n">
         <v>41</v>
       </c>
@@ -4647,7 +4502,7 @@
         <v>3452.26</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="19">
+    <row r="44" ht="15" customHeight="1" s="3">
       <c r="B44" t="n">
         <v>42</v>
       </c>
@@ -4734,7 +4589,7 @@
         <v>5052.03</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="19">
+    <row r="45" ht="15" customHeight="1" s="3">
       <c r="B45" t="n">
         <v>43</v>
       </c>
@@ -4821,7 +4676,7 @@
         <v>3254.98</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="19">
+    <row r="46" ht="15" customHeight="1" s="3">
       <c r="B46" t="n">
         <v>44</v>
       </c>
@@ -4904,7 +4759,7 @@
         <v>5078.7</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="19">
+    <row r="47" ht="15" customHeight="1" s="3">
       <c r="B47" t="n">
         <v>45</v>
       </c>
@@ -4995,7 +4850,7 @@
         <v>4420.53</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="19">
+    <row r="48" ht="15" customHeight="1" s="3">
       <c r="B48" t="n">
         <v>46</v>
       </c>
@@ -5086,7 +4941,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="19">
+    <row r="49" ht="15" customHeight="1" s="3">
       <c r="B49" t="n">
         <v>47</v>
       </c>
@@ -5177,7 +5032,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="19">
+    <row r="50" ht="15" customHeight="1" s="3">
       <c r="B50" t="n">
         <v>48</v>
       </c>
@@ -5264,7 +5119,7 @@
         <v>5780.45</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="19">
+    <row r="51" ht="15" customHeight="1" s="3">
       <c r="B51" t="n">
         <v>49</v>
       </c>
@@ -5355,7 +5210,7 @@
         <v>5815.61</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" s="19">
+    <row r="52" ht="15" customHeight="1" s="3">
       <c r="B52" t="n">
         <v>50</v>
       </c>
@@ -5446,7 +5301,7 @@
         <v>4976.96</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" s="19">
+    <row r="53" ht="15" customHeight="1" s="3">
       <c r="B53" t="n">
         <v>51</v>
       </c>
@@ -5537,7 +5392,7 @@
         <v>5323.61</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" s="19">
+    <row r="54" ht="15" customHeight="1" s="3">
       <c r="B54" t="n">
         <v>52</v>
       </c>
@@ -5624,7 +5479,7 @@
         <v>5286.4</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" s="19">
+    <row r="55" ht="15" customHeight="1" s="3">
       <c r="B55" t="n">
         <v>53</v>
       </c>
@@ -5715,7 +5570,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="19">
+    <row r="56" ht="15" customHeight="1" s="3">
       <c r="B56" t="n">
         <v>54</v>
       </c>
@@ -5802,7 +5657,7 @@
         <v>5061.47</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" s="19">
+    <row r="57" ht="15" customHeight="1" s="3">
       <c r="B57" t="n">
         <v>55</v>
       </c>
@@ -5893,7 +5748,7 @@
         <v>5439.62</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" s="19">
+    <row r="58" ht="15" customHeight="1" s="3">
       <c r="B58" t="n">
         <v>56</v>
       </c>
@@ -5984,7 +5839,7 @@
         <v>5345.24</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" s="19">
+    <row r="59" ht="15" customHeight="1" s="3">
       <c r="B59" t="n">
         <v>57</v>
       </c>
@@ -6071,7 +5926,7 @@
         <v>5261.74</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" s="19">
+    <row r="60" ht="15" customHeight="1" s="3">
       <c r="B60" t="n">
         <v>58</v>
       </c>
@@ -6162,7 +6017,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1" s="19">
+    <row r="61" ht="15" customHeight="1" s="3">
       <c r="B61" t="n">
         <v>59</v>
       </c>
@@ -6249,7 +6104,7 @@
         <v>3310.56</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" s="19">
+    <row r="62" ht="15" customHeight="1" s="3">
       <c r="B62" t="n">
         <v>60</v>
       </c>
@@ -6336,7 +6191,7 @@
         <v>3801.15</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1" s="19">
+    <row r="63" ht="15" customHeight="1" s="3">
       <c r="B63" t="n">
         <v>61</v>
       </c>
@@ -6423,7 +6278,7 @@
         <v>5656.92</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" s="19">
+    <row r="64" ht="15" customHeight="1" s="3">
       <c r="B64" t="n">
         <v>62</v>
       </c>
@@ -6510,7 +6365,7 @@
         <v>5281.62</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="19">
+    <row r="65" ht="15" customHeight="1" s="3">
       <c r="B65" t="n">
         <v>63</v>
       </c>
@@ -6601,7 +6456,7 @@
         <v>4767.83</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1" s="19">
+    <row r="66" ht="15" customHeight="1" s="3">
       <c r="B66" t="n">
         <v>64</v>
       </c>
@@ -6692,7 +6547,7 @@
         <v>6120.68</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" s="19">
+    <row r="67" ht="15" customHeight="1" s="3">
       <c r="B67" t="n">
         <v>65</v>
       </c>
@@ -6783,7 +6638,7 @@
         <v>5771.79</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" s="19">
+    <row r="68" ht="15" customHeight="1" s="3">
       <c r="B68" t="n">
         <v>66</v>
       </c>
@@ -6874,7 +6729,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" s="19">
+    <row r="69" ht="15" customHeight="1" s="3">
       <c r="B69" t="n">
         <v>67</v>
       </c>
@@ -6965,7 +6820,7 @@
         <v>6042.86</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" s="19">
+    <row r="70" ht="15" customHeight="1" s="3">
       <c r="B70" t="n">
         <v>68</v>
       </c>
@@ -7056,7 +6911,7 @@
         <v>7294.86</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" s="19">
+    <row r="71" ht="15" customHeight="1" s="3">
       <c r="B71" t="n">
         <v>69</v>
       </c>
@@ -7143,7 +6998,7 @@
         <v>5448.06</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="19">
+    <row r="72" ht="15" customHeight="1" s="3">
       <c r="B72" t="n">
         <v>70</v>
       </c>
@@ -7230,7 +7085,7 @@
         <v>6036.14</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1" s="19">
+    <row r="73" ht="15" customHeight="1" s="3">
       <c r="B73" t="n">
         <v>71</v>
       </c>
@@ -7321,7 +7176,7 @@
         <v>5004.24</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="19">
+    <row r="74" ht="15" customHeight="1" s="3">
       <c r="B74" t="n">
         <v>72</v>
       </c>
@@ -7408,7 +7263,7 @@
         <v>6045.65</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" s="19">
+    <row r="75" ht="15" customHeight="1" s="3">
       <c r="B75" t="n">
         <v>73</v>
       </c>
@@ -7495,7 +7350,7 @@
         <v>6777.76</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1" s="19">
+    <row r="76" ht="15" customHeight="1" s="3">
       <c r="B76" t="n">
         <v>74</v>
       </c>
@@ -7582,7 +7437,7 @@
         <v>6371.46</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" s="19">
+    <row r="77" ht="15" customHeight="1" s="3">
       <c r="B77" t="n">
         <v>75</v>
       </c>
@@ -7669,7 +7524,7 @@
         <v>8033.58</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1" s="19">
+    <row r="78" ht="15" customHeight="1" s="3">
       <c r="B78" t="n">
         <v>76</v>
       </c>
@@ -7756,7 +7611,7 @@
         <v>2859.92</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" s="19">
+    <row r="79" ht="15" customHeight="1" s="3">
       <c r="B79" t="n">
         <v>77</v>
       </c>
@@ -7847,7 +7702,7 @@
         <v>4420.53</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1" s="19">
+    <row r="80" ht="15" customHeight="1" s="3">
       <c r="B80" t="n">
         <v>78</v>
       </c>
@@ -7938,7 +7793,7 @@
         <v>9527.58</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" s="19">
+    <row r="81" ht="15" customHeight="1" s="3">
       <c r="B81" t="n">
         <v>79</v>
       </c>
@@ -8025,7 +7880,7 @@
         <v>8438.790000000001</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1" s="19">
+    <row r="82" ht="15" customHeight="1" s="3">
       <c r="B82" t="n">
         <v>80</v>
       </c>
@@ -8112,7 +7967,7 @@
         <v>6740.82</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1" s="19">
+    <row r="83" ht="15" customHeight="1" s="3">
       <c r="B83" t="n">
         <v>81</v>
       </c>
@@ -8203,7 +8058,7 @@
         <v>5052.03</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" s="19">
+    <row r="84" ht="15" customHeight="1" s="3">
       <c r="B84" t="n">
         <v>82</v>
       </c>
@@ -8294,7 +8149,7 @@
         <v>16027.73</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" s="19">
+    <row r="85" ht="15" customHeight="1" s="3">
       <c r="B85" t="n">
         <v>83</v>
       </c>
@@ -8393,7 +8248,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" s="19">
+    <row r="86" ht="15" customHeight="1" s="3">
       <c r="B86" t="n">
         <v>84</v>
       </c>
@@ -8492,7 +8347,7 @@
         <v>8085.82</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" s="19">
+    <row r="87" ht="15" customHeight="1" s="3">
       <c r="B87" t="n">
         <v>85</v>
       </c>
@@ -8591,7 +8446,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" s="19">
+    <row r="88" ht="15" customHeight="1" s="3">
       <c r="B88" t="n">
         <v>86</v>
       </c>
@@ -8682,7 +8537,7 @@
         <v>12530.1</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" s="19">
+    <row r="89" ht="15" customHeight="1" s="3">
       <c r="B89" t="n">
         <v>87</v>
       </c>
@@ -8781,7 +8636,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1" s="19">
+    <row r="90" ht="15" customHeight="1" s="3">
       <c r="B90" t="n">
         <v>88</v>
       </c>
@@ -8868,7 +8723,7 @@
         <v>4525.12</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1" s="19">
+    <row r="91" ht="15" customHeight="1" s="3">
       <c r="B91" t="n">
         <v>89</v>
       </c>
@@ -8951,7 +8806,7 @@
         <v>2069.83</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1" s="19">
+    <row r="92" ht="15" customHeight="1" s="3">
       <c r="B92" t="n">
         <v>90</v>
       </c>
@@ -9042,7 +8897,7 @@
         <v>4152.21</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1" s="19">
+    <row r="93" ht="15" customHeight="1" s="3">
       <c r="B93" t="n">
         <v>91</v>
       </c>
@@ -9129,7 +8984,7 @@
         <v>4625.63</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1" s="19">
+    <row r="94" ht="15" customHeight="1" s="3">
       <c r="B94" t="n">
         <v>92</v>
       </c>
@@ -9220,7 +9075,7 @@
         <v>946.48</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" s="19">
+    <row r="95" ht="15" customHeight="1" s="3">
       <c r="B95" t="n">
         <v>93</v>
       </c>
@@ -9311,7 +9166,7 @@
         <v>752.89</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1" s="19">
+    <row r="96" ht="15" customHeight="1" s="3">
       <c r="B96" t="n">
         <v>94</v>
       </c>
@@ -9402,7 +9257,7 @@
         <v>14857.47</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1" s="19">
+    <row r="97" ht="15" customHeight="1" s="3">
       <c r="B97" t="n">
         <v>95</v>
       </c>
@@ -9493,7 +9348,7 @@
         <v>15395.07</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1" s="19">
+    <row r="98" ht="15" customHeight="1" s="3">
       <c r="B98" t="n">
         <v>96</v>
       </c>
@@ -9588,7 +9443,7 @@
         <v>1402.39</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1" s="19">
+    <row r="99" ht="15" customHeight="1" s="3">
       <c r="B99" t="n">
         <v>97</v>
       </c>
@@ -9687,7 +9542,7 @@
         <v>3567.75</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1" s="19">
+    <row r="100" ht="15" customHeight="1" s="3">
       <c r="B100" t="n">
         <v>98</v>
       </c>
@@ -9786,7 +9641,7 @@
         <v>1312.17</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1" s="19">
+    <row r="101" ht="15" customHeight="1" s="3">
       <c r="B101" t="n">
         <v>99</v>
       </c>
@@ -9877,7 +9732,7 @@
         <v>15574.28</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1" s="19">
+    <row r="102" ht="15" customHeight="1" s="3">
       <c r="B102" t="n">
         <v>100</v>
       </c>
@@ -9960,7 +9815,7 @@
         <v>5055.61</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1" s="19">
+    <row r="103" ht="15" customHeight="1" s="3">
       <c r="B103" t="n">
         <v>101</v>
       </c>
@@ -10047,7 +9902,7 @@
         <v>18680.44</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" s="19">
+    <row r="104" ht="15" customHeight="1" s="3">
       <c r="B104" t="n">
         <v>102</v>
       </c>
@@ -10134,7 +9989,7 @@
         <v>7716.92</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1" s="19">
+    <row r="105" ht="15" customHeight="1" s="3">
       <c r="B105" t="n">
         <v>103</v>
       </c>
@@ -10217,7 +10072,7 @@
         <v>4322.57</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" s="19">
+    <row r="106" ht="15" customHeight="1" s="3">
       <c r="B106" t="n">
         <v>104</v>
       </c>
@@ -10300,7 +10155,7 @@
         <v>923.16</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" s="19">
+    <row r="107" ht="15" customHeight="1" s="3">
       <c r="B107" t="n">
         <v>105</v>
       </c>
@@ -10387,7 +10242,7 @@
         <v>9726.950000000001</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1" s="19">
+    <row r="108" ht="15" customHeight="1" s="3">
       <c r="B108" t="n">
         <v>106</v>
       </c>
@@ -10474,7 +10329,7 @@
         <v>6126.73</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1" s="19">
+    <row r="109" ht="15" customHeight="1" s="3">
       <c r="B109" t="n">
         <v>107</v>
       </c>
@@ -10561,7 +10416,7 @@
         <v>12707.05</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1" s="19">
+    <row r="110" ht="15" customHeight="1" s="3">
       <c r="B110" t="n">
         <v>108</v>
       </c>
@@ -10648,7 +10503,7 @@
         <v>9359.23</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1" s="19">
+    <row r="111" ht="15" customHeight="1" s="3">
       <c r="B111" t="n">
         <v>109</v>
       </c>
@@ -10735,7 +10590,7 @@
         <v>4040.19</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1" s="19">
+    <row r="112" ht="15" customHeight="1" s="3">
       <c r="B112" t="n">
         <v>110</v>
       </c>
@@ -10826,7 +10681,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1" s="19">
+    <row r="113" ht="15" customHeight="1" s="3">
       <c r="B113" t="n">
         <v>111</v>
       </c>
@@ -10913,7 +10768,7 @@
         <v>12250.9</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1" s="19">
+    <row r="114" ht="15" customHeight="1" s="3">
       <c r="B114" t="n">
         <v>112</v>
       </c>
@@ -11000,7 +10855,7 @@
         <v>4127.85</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1" s="19">
+    <row r="115" ht="15" customHeight="1" s="3">
       <c r="B115" t="n">
         <v>113</v>
       </c>
@@ -11087,7 +10942,7 @@
         <v>4493.55</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1" s="19">
+    <row r="116" ht="15" customHeight="1" s="3">
       <c r="B116" t="n">
         <v>114</v>
       </c>
@@ -11178,7 +11033,7 @@
         <v>4256.05</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1" s="19">
+    <row r="117" ht="15" customHeight="1" s="3">
       <c r="B117" t="n">
         <v>115</v>
       </c>
@@ -11269,7 +11124,7 @@
         <v>14444.76</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1" s="19">
+    <row r="118" ht="15" customHeight="1" s="3">
       <c r="B118" t="n">
         <v>116</v>
       </c>
@@ -11360,7 +11215,7 @@
         <v>7122.56</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1" s="19">
+    <row r="119" ht="15" customHeight="1" s="3">
       <c r="B119" t="n">
         <v>117</v>
       </c>
@@ -11451,7 +11306,7 @@
         <v>4597.29</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1" s="19">
+    <row r="120" ht="15" customHeight="1" s="3">
       <c r="B120" t="n">
         <v>118</v>
       </c>
@@ -11538,7 +11393,7 @@
         <v>4339.98</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1" s="19">
+    <row r="121" ht="15" customHeight="1" s="3">
       <c r="B121" t="n">
         <v>119</v>
       </c>
@@ -11629,7 +11484,7 @@
         <v>5701.88</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1" s="19">
+    <row r="122" ht="15" customHeight="1" s="3">
       <c r="B122" t="n">
         <v>120</v>
       </c>
@@ -11720,7 +11575,7 @@
         <v>8723.879999999999</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1" s="19">
+    <row r="123" ht="15" customHeight="1" s="3">
       <c r="B123" t="n">
         <v>121</v>
       </c>
@@ -11811,7 +11666,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1" s="19">
+    <row r="124" ht="15" customHeight="1" s="3">
       <c r="B124" t="n">
         <v>122</v>
       </c>
@@ -11902,7 +11757,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1" s="19">
+    <row r="125" ht="15" customHeight="1" s="3">
       <c r="B125" t="n">
         <v>123</v>
       </c>
@@ -11989,7 +11844,7 @@
         <v>4352.97</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1" s="19">
+    <row r="126" ht="15" customHeight="1" s="3">
       <c r="B126" t="n">
         <v>124</v>
       </c>
@@ -12080,7 +11935,7 @@
         <v>5305.99</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1" s="19">
+    <row r="127" ht="15" customHeight="1" s="3">
       <c r="B127" t="n">
         <v>125</v>
       </c>
@@ -12167,7 +12022,7 @@
         <v>4901.74</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1" s="19">
+    <row r="128" ht="15" customHeight="1" s="3">
       <c r="B128" t="n">
         <v>126</v>
       </c>
@@ -12254,7 +12109,7 @@
         <v>3785.94</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1" s="19">
+    <row r="129" ht="15" customHeight="1" s="3">
       <c r="B129" t="n">
         <v>127</v>
       </c>
@@ -12341,7 +12196,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1" s="19">
+    <row r="130" ht="15" customHeight="1" s="3">
       <c r="B130" t="n">
         <v>128</v>
       </c>
@@ -12432,7 +12287,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1" s="19">
+    <row r="131" ht="15" customHeight="1" s="3">
       <c r="B131" t="n">
         <v>129</v>
       </c>
@@ -12523,7 +12378,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1" s="19">
+    <row r="132" ht="15" customHeight="1" s="3">
       <c r="B132" t="n">
         <v>130</v>
       </c>
@@ -12610,7 +12465,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" s="19">
+    <row r="133" ht="15" customHeight="1" s="3">
       <c r="B133" t="n">
         <v>131</v>
       </c>
@@ -12697,7 +12552,7 @@
         <v>4484.72</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1" s="19">
+    <row r="134" ht="15" customHeight="1" s="3">
       <c r="B134" t="n">
         <v>132</v>
       </c>
@@ -12784,7 +12639,7 @@
         <v>4135.37</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" s="19">
+    <row r="135" ht="15" customHeight="1" s="3">
       <c r="B135" t="n">
         <v>133</v>
       </c>
@@ -12871,7 +12726,7 @@
         <v>3453.96</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" s="19">
+    <row r="136" ht="15" customHeight="1" s="3">
       <c r="B136" t="n">
         <v>134</v>
       </c>
@@ -12958,7 +12813,7 @@
         <v>4135.37</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1" s="19">
+    <row r="137" ht="15" customHeight="1" s="3">
       <c r="B137" t="n">
         <v>135</v>
       </c>
@@ -13045,7 +12900,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1" s="19">
+    <row r="138" ht="15" customHeight="1" s="3">
       <c r="B138" t="n">
         <v>136</v>
       </c>
@@ -13136,7 +12991,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1" s="19">
+    <row r="139" ht="15" customHeight="1" s="3">
       <c r="B139" t="n">
         <v>137</v>
       </c>
@@ -13223,7 +13078,7 @@
         <v>3544.6</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1" s="19">
+    <row r="140" ht="15" customHeight="1" s="3">
       <c r="B140" t="n">
         <v>138</v>
       </c>
@@ -13310,7 +13165,7 @@
         <v>4675.3</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1" s="19">
+    <row r="141" ht="15" customHeight="1" s="3">
       <c r="B141" t="n">
         <v>139</v>
       </c>
@@ -13397,7 +13252,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1" s="19">
+    <row r="142" ht="15" customHeight="1" s="3">
       <c r="B142" t="n">
         <v>140</v>
       </c>
@@ -13488,7 +13343,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1" s="19">
+    <row r="143" ht="15" customHeight="1" s="3">
       <c r="B143" t="n">
         <v>141</v>
       </c>
@@ -13575,7 +13430,7 @@
         <v>4484.72</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1" s="19">
+    <row r="144" ht="15" customHeight="1" s="3">
       <c r="B144" t="n">
         <v>142</v>
       </c>
@@ -13666,7 +13521,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1" s="19">
+    <row r="145" ht="15" customHeight="1" s="3">
       <c r="B145" t="n">
         <v>143</v>
       </c>
@@ -13753,7 +13608,7 @@
         <v>7664.22</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1" s="19">
+    <row r="146" ht="15" customHeight="1" s="3">
       <c r="B146" t="n">
         <v>144</v>
       </c>
@@ -13840,7 +13695,7 @@
         <v>5958.35</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1" s="19">
+    <row r="147" ht="15" customHeight="1" s="3">
       <c r="B147" t="n">
         <v>145</v>
       </c>
@@ -13931,7 +13786,7 @@
         <v>5579.95</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1" s="19">
+    <row r="148" ht="15" customHeight="1" s="3">
       <c r="B148" t="n">
         <v>146</v>
       </c>
@@ -14018,7 +13873,7 @@
         <v>3053.34</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1" s="19">
+    <row r="149" ht="15" customHeight="1" s="3">
       <c r="B149" t="n">
         <v>147</v>
       </c>
@@ -14105,7 +13960,7 @@
         <v>2953.84</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1" s="19">
+    <row r="150" ht="15" customHeight="1" s="3">
       <c r="B150" t="n">
         <v>148</v>
       </c>
@@ -14200,7 +14055,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1" s="19">
+    <row r="151" ht="15" customHeight="1" s="3">
       <c r="B151" t="n">
         <v>149</v>
       </c>
@@ -14287,7 +14142,7 @@
         <v>4675.3</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1" s="19">
+    <row r="152" ht="15" customHeight="1" s="3">
       <c r="B152" t="n">
         <v>150</v>
       </c>
@@ -14374,7 +14229,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1" s="19">
+    <row r="153" ht="15" customHeight="1" s="3">
       <c r="B153" t="n">
         <v>151</v>
       </c>
@@ -14461,7 +14316,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1" s="19">
+    <row r="154" ht="15" customHeight="1" s="3">
       <c r="B154" t="n">
         <v>152</v>
       </c>
@@ -14544,7 +14399,7 @@
         <v>4748.7</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1" s="19">
+    <row r="155" ht="15" customHeight="1" s="3">
       <c r="B155" t="n">
         <v>153</v>
       </c>
@@ -14631,7 +14486,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" s="19">
+    <row r="156" ht="15" customHeight="1" s="3">
       <c r="B156" t="n">
         <v>154</v>
       </c>
@@ -14718,7 +14573,7 @@
         <v>3165.8</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1" s="19">
+    <row r="157" ht="15" customHeight="1" s="3">
       <c r="B157" t="n">
         <v>155</v>
       </c>
@@ -14805,7 +14660,7 @@
         <v>4748.7</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1" s="19">
+    <row r="158" ht="15" customHeight="1" s="3">
       <c r="B158" t="n">
         <v>156</v>
       </c>
@@ -14896,7 +14751,7 @@
         <v>4135.37</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1" s="19">
+    <row r="159" ht="15" customHeight="1" s="3">
       <c r="B159" t="n">
         <v>157</v>
       </c>
@@ -14987,7 +14842,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1" s="19">
+    <row r="160" ht="15" customHeight="1" s="3">
       <c r="B160" t="n">
         <v>158</v>
       </c>
@@ -15074,7 +14929,7 @@
         <v>2953.84</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1" s="19">
+    <row r="161" ht="15" customHeight="1" s="3">
       <c r="B161" t="n">
         <v>159</v>
       </c>
@@ -15161,7 +15016,7 @@
         <v>6211.89</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1" s="19">
+    <row r="162" ht="15" customHeight="1" s="3">
       <c r="B162" t="n">
         <v>160</v>
       </c>
@@ -15248,7 +15103,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1" s="19">
+    <row r="163" ht="15" customHeight="1" s="3">
       <c r="B163" t="n">
         <v>161</v>
       </c>
@@ -15335,7 +15190,7 @@
         <v>5912.64</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1" s="19">
+    <row r="164" ht="15" customHeight="1" s="3">
       <c r="B164" t="n">
         <v>162</v>
       </c>
@@ -15422,7 +15277,7 @@
         <v>4135.37</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1" s="19">
+    <row r="165" ht="15" customHeight="1" s="3">
       <c r="B165" t="n">
         <v>163</v>
       </c>
@@ -15509,7 +15364,7 @@
         <v>4726.14</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1" s="19">
+    <row r="166" ht="15" customHeight="1" s="3">
       <c r="B166" t="n">
         <v>164</v>
       </c>
@@ -15596,7 +15451,7 @@
         <v>2953.84</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1" s="19">
+    <row r="167" ht="15" customHeight="1" s="3">
       <c r="B167" t="n">
         <v>165</v>
       </c>
@@ -15679,7 +15534,7 @@
         <v>4748.7</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1" s="19">
+    <row r="168" ht="15" customHeight="1" s="3">
       <c r="B168" t="n">
         <v>166</v>
       </c>
@@ -15770,7 +15625,7 @@
         <v>7294.86</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1" s="19">
+    <row r="169" ht="15" customHeight="1" s="3">
       <c r="B169" t="n">
         <v>167</v>
       </c>
@@ -15857,7 +15712,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1" s="19">
+    <row r="170" ht="15" customHeight="1" s="3">
       <c r="B170" t="n">
         <v>168</v>
       </c>
@@ -15944,7 +15799,7 @@
         <v>2220.88</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1" s="19">
+    <row r="171" ht="15" customHeight="1" s="3">
       <c r="B171" t="n">
         <v>169</v>
       </c>
@@ -16035,7 +15890,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1" s="19">
+    <row r="172" ht="15" customHeight="1" s="3">
       <c r="B172" t="n">
         <v>170</v>
       </c>
@@ -16122,7 +15977,7 @@
         <v>4885.34</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1" s="19">
+    <row r="173" ht="15" customHeight="1" s="3">
       <c r="B173" t="n">
         <v>171</v>
       </c>
@@ -16213,7 +16068,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1" s="19">
+    <row r="174" ht="15" customHeight="1" s="3">
       <c r="B174" t="n">
         <v>172</v>
       </c>
@@ -16300,7 +16155,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1" s="19">
+    <row r="175" ht="15" customHeight="1" s="3">
       <c r="B175" t="n">
         <v>173</v>
       </c>
@@ -16387,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1" s="19">
+    <row r="176" ht="15" customHeight="1" s="3">
       <c r="B176" t="n">
         <v>174</v>
       </c>
@@ -16474,7 +16329,7 @@
         <v>7664.22</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1" s="19">
+    <row r="177" ht="15" customHeight="1" s="3">
       <c r="B177" t="n">
         <v>175</v>
       </c>
@@ -16561,7 +16416,7 @@
         <v>4675.3</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1" s="19">
+    <row r="178" ht="15" customHeight="1" s="3">
       <c r="B178" t="n">
         <v>176</v>
       </c>
@@ -16648,7 +16503,7 @@
         <v>3959.48</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1" s="19">
+    <row r="179" ht="15" customHeight="1" s="3">
       <c r="B179" t="n">
         <v>177</v>
       </c>
@@ -16735,7 +16590,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1" s="19">
+    <row r="180" ht="15" customHeight="1" s="3">
       <c r="B180" t="n">
         <v>178</v>
       </c>
@@ -16818,7 +16673,7 @@
         <v>3033.05</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1" s="19">
+    <row r="181" ht="15" customHeight="1" s="3">
       <c r="B181" t="n">
         <v>179</v>
       </c>
@@ -16909,7 +16764,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1" s="19">
+    <row r="182" ht="15" customHeight="1" s="3">
       <c r="B182" t="n">
         <v>180</v>
       </c>
@@ -16996,7 +16851,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1" s="19">
+    <row r="183" ht="15" customHeight="1" s="3">
       <c r="B183" t="n">
         <v>181</v>
       </c>
@@ -17083,7 +16938,7 @@
         <v>2374.35</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1" s="19">
+    <row r="184" ht="15" customHeight="1" s="3">
       <c r="B184" t="n">
         <v>182</v>
       </c>
@@ -17178,7 +17033,7 @@
         <v>4484.72</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1" s="19">
+    <row r="185" ht="15" customHeight="1" s="3">
       <c r="B185" t="n">
         <v>183</v>
       </c>
@@ -17269,7 +17124,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1" s="19">
+    <row r="186" ht="15" customHeight="1" s="3">
       <c r="B186" t="n">
         <v>184</v>
       </c>
@@ -17356,7 +17211,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1" s="19">
+    <row r="187" ht="15" customHeight="1" s="3">
       <c r="B187" t="n">
         <v>185</v>
       </c>
@@ -17447,7 +17302,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1" s="19">
+    <row r="188" ht="15" customHeight="1" s="3">
       <c r="B188" t="n">
         <v>186</v>
       </c>
@@ -17538,7 +17393,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1" s="19">
+    <row r="189" ht="15" customHeight="1" s="3">
       <c r="B189" t="n">
         <v>187</v>
       </c>
@@ -17629,7 +17484,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1" s="19">
+    <row r="190" ht="15" customHeight="1" s="3">
       <c r="B190" t="n">
         <v>188</v>
       </c>
@@ -17716,7 +17571,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1" s="19">
+    <row r="191" ht="15" customHeight="1" s="3">
       <c r="B191" t="n">
         <v>189</v>
       </c>
@@ -17807,7 +17662,7 @@
         <v>7664.22</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1" s="19">
+    <row r="192" ht="15" customHeight="1" s="3">
       <c r="B192" t="n">
         <v>190</v>
       </c>
@@ -17906,7 +17761,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1" s="19">
+    <row r="193" ht="15" customHeight="1" s="3">
       <c r="B193" t="n">
         <v>191</v>
       </c>
@@ -18001,7 +17856,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1" s="19">
+    <row r="194" ht="15" customHeight="1" s="3">
       <c r="B194" t="n">
         <v>192</v>
       </c>
@@ -18100,7 +17955,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1" s="19">
+    <row r="195" ht="15" customHeight="1" s="3">
       <c r="B195" t="n">
         <v>193</v>
       </c>
@@ -18191,7 +18046,7 @@
         <v>4675.3</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1" s="19">
+    <row r="196" ht="15" customHeight="1" s="3">
       <c r="B196" t="n">
         <v>194</v>
       </c>
@@ -18278,7 +18133,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1" s="19">
+    <row r="197" ht="15" customHeight="1" s="3">
       <c r="B197" t="n">
         <v>195</v>
       </c>
@@ -18369,7 +18224,7 @@
         </is>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1" s="19">
+    <row r="198" ht="15" customHeight="1" s="3">
       <c r="B198" t="n">
         <v>196</v>
       </c>
@@ -18468,7 +18323,7 @@
         <v>4274.67</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1" s="19">
+    <row r="199" ht="15" customHeight="1" s="3">
       <c r="B199" t="n">
         <v>197</v>
       </c>
@@ -18559,7 +18414,7 @@
         <v>4594.55</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1" s="19">
+    <row r="200" ht="15" customHeight="1" s="3">
       <c r="B200" t="n">
         <v>198</v>
       </c>
@@ -18650,7 +18505,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1" s="19">
+    <row r="201" ht="15" customHeight="1" s="3">
       <c r="B201" t="n">
         <v>199</v>
       </c>
@@ -18737,7 +18592,7 @@
         <v>2737.68</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1" s="19">
+    <row r="202" ht="15" customHeight="1" s="3">
       <c r="B202" t="n">
         <v>200</v>
       </c>
@@ -18824,7 +18679,7 @@
         <v>4500.41</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1" s="19">
+    <row r="203" ht="15" customHeight="1" s="3">
       <c r="B203" t="n">
         <v>201</v>
       </c>
@@ -18911,7 +18766,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1" s="19">
+    <row r="204" ht="15" customHeight="1" s="3">
       <c r="B204" t="n">
         <v>202</v>
       </c>
@@ -19002,7 +18857,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1" s="19">
+    <row r="205" ht="15" customHeight="1" s="3">
       <c r="B205" t="n">
         <v>203</v>
       </c>
@@ -19093,7 +18948,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1" s="19">
+    <row r="206" ht="15" customHeight="1" s="3">
       <c r="B206" t="n">
         <v>204</v>
       </c>
@@ -19184,7 +19039,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1" s="19">
+    <row r="207" ht="15" customHeight="1" s="3">
       <c r="B207" t="n">
         <v>205</v>
       </c>
@@ -19271,7 +19126,7 @@
         <v>4155.3</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1" s="19">
+    <row r="208" ht="15" customHeight="1" s="3">
       <c r="B208" t="n">
         <v>206</v>
       </c>
@@ -19358,7 +19213,7 @@
         <v>4572.4</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1" s="19">
+    <row r="209" ht="15" customHeight="1" s="3">
       <c r="B209" t="n">
         <v>207</v>
       </c>
@@ -19445,7 +19300,7 @@
         <v>2704.33</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1" s="19">
+    <row r="210" ht="15" customHeight="1" s="3">
       <c r="B210" t="n">
         <v>208</v>
       </c>
@@ -19532,7 +19387,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1" s="19">
+    <row r="211" ht="15" customHeight="1" s="3">
       <c r="B211" t="n">
         <v>209</v>
       </c>
@@ -19619,7 +19474,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1" s="19">
+    <row r="212" ht="15" customHeight="1" s="3">
       <c r="B212" t="n">
         <v>210</v>
       </c>
@@ -19706,7 +19561,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1" s="19">
+    <row r="213" ht="15" customHeight="1" s="3">
       <c r="B213" t="n">
         <v>211</v>
       </c>
@@ -19793,7 +19648,7 @@
         <v>7664.22</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1" s="19">
+    <row r="214" ht="15" customHeight="1" s="3">
       <c r="B214" t="n">
         <v>212</v>
       </c>
@@ -19884,7 +19739,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1" s="19">
+    <row r="215" ht="15" customHeight="1" s="3">
       <c r="B215" t="n">
         <v>213</v>
       </c>
@@ -19979,7 +19834,7 @@
         <v>4438.61</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1" s="19">
+    <row r="216" ht="15" customHeight="1" s="3">
       <c r="B216" t="n">
         <v>214</v>
       </c>
@@ -20066,7 +19921,7 @@
         <v>4675.3</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1" s="19">
+    <row r="217" ht="15" customHeight="1" s="3">
       <c r="B217" t="n">
         <v>215</v>
       </c>
@@ -20153,7 +20008,7 @@
         <v>5475.35</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1" s="19">
+    <row r="218" ht="15" customHeight="1" s="3">
       <c r="B218" t="n">
         <v>216</v>
       </c>
@@ -20240,7 +20095,7 @@
         <v>4790.93</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1" s="19">
+    <row r="219" ht="15" customHeight="1" s="3">
       <c r="B219" t="n">
         <v>217</v>
       </c>
@@ -20327,7 +20182,7 @@
         <v>4484.72</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1" s="19">
+    <row r="220" ht="15" customHeight="1" s="3">
       <c r="B220" t="n">
         <v>218</v>
       </c>
@@ -20418,7 +20273,7 @@
         </is>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1" s="19">
+    <row r="221" ht="15" customHeight="1" s="3">
       <c r="B221" t="n">
         <v>219</v>
       </c>
@@ -20501,7 +20356,7 @@
         <v>1278.85</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1" s="19">
+    <row r="222" ht="15" customHeight="1" s="3">
       <c r="B222" t="n">
         <v>220</v>
       </c>
@@ -20592,7 +20447,7 @@
         <v>4369.96</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1" s="19">
+    <row r="223" ht="15" customHeight="1" s="3">
       <c r="B223" t="n">
         <v>221</v>
       </c>
@@ -20683,7 +20538,7 @@
         <v>4816.37</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1" s="19">
+    <row r="224" ht="15" customHeight="1" s="3">
       <c r="B224" t="n">
         <v>222</v>
       </c>
@@ -20774,7 +20629,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1" s="19">
+    <row r="225" ht="15" customHeight="1" s="3">
       <c r="B225" t="n">
         <v>223</v>
       </c>
@@ -20861,7 +20716,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1" s="19">
+    <row r="226" ht="15" customHeight="1" s="3">
       <c r="B226" t="n">
         <v>224</v>
       </c>
@@ -20948,7 +20803,7 @@
         <v>4816.37</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1" s="19">
+    <row r="227" ht="15" customHeight="1" s="3">
       <c r="B227" t="n">
         <v>225</v>
       </c>
@@ -21043,7 +20898,7 @@
         <v>4790.05</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1" s="19">
+    <row r="228" ht="15" customHeight="1" s="3">
       <c r="B228" t="n">
         <v>226</v>
       </c>
@@ -21130,7 +20985,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1" s="19">
+    <row r="229" ht="15" customHeight="1" s="3">
       <c r="B229" t="n">
         <v>227</v>
       </c>
@@ -21217,7 +21072,7 @@
         <v>6392.28</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1" s="19">
+    <row r="230" ht="15" customHeight="1" s="3">
       <c r="B230" t="n">
         <v>228</v>
       </c>
@@ -21308,7 +21163,7 @@
         <v>5929.95</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1" s="19">
+    <row r="231" ht="15" customHeight="1" s="3">
       <c r="B231" t="n">
         <v>229</v>
       </c>
@@ -21399,7 +21254,7 @@
         <v>4816.37</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1" s="19">
+    <row r="232" ht="15" customHeight="1" s="3">
       <c r="B232" t="n">
         <v>230</v>
       </c>
@@ -21486,7 +21341,7 @@
         <v>1192.23</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1" s="19">
+    <row r="233" ht="15" customHeight="1" s="3">
       <c r="B233" t="n">
         <v>231</v>
       </c>
@@ -21577,7 +21432,7 @@
         <v>5571.88</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1" s="19">
+    <row r="234" ht="15" customHeight="1" s="3">
       <c r="B234" t="n">
         <v>232</v>
       </c>
@@ -21668,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1" s="19">
+    <row r="235" ht="15" customHeight="1" s="3">
       <c r="B235" t="n">
         <v>233</v>
       </c>
@@ -21755,7 +21610,7 @@
         <v>6006.65</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1" s="19">
+    <row r="236" ht="15" customHeight="1" s="3">
       <c r="B236" t="n">
         <v>234</v>
       </c>
@@ -21846,7 +21701,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1" s="19">
+    <row r="237" ht="15" customHeight="1" s="3">
       <c r="B237" t="n">
         <v>235</v>
       </c>
@@ -21937,7 +21792,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1" s="19">
+    <row r="238" ht="15" customHeight="1" s="3">
       <c r="B238" t="n">
         <v>236</v>
       </c>
@@ -22028,7 +21883,7 @@
         <v>4790.05</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1" s="19">
+    <row r="239" ht="15" customHeight="1" s="3">
       <c r="B239" t="n">
         <v>237</v>
       </c>
@@ -22119,7 +21974,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1" s="19">
+    <row r="240" ht="15" customHeight="1" s="3">
       <c r="B240" t="n">
         <v>238</v>
       </c>
@@ -22210,7 +22065,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1" s="19">
+    <row r="241" ht="15" customHeight="1" s="3">
       <c r="B241" t="n">
         <v>239</v>
       </c>
@@ -22301,7 +22156,7 @@
         </is>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1" s="19">
+    <row r="242" ht="15" customHeight="1" s="3">
       <c r="B242" t="n">
         <v>240</v>
       </c>
@@ -22392,7 +22247,7 @@
         <v>7664.22</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1" s="19">
+    <row r="243" ht="15" customHeight="1" s="3">
       <c r="B243" t="n">
         <v>241</v>
       </c>
@@ -22483,7 +22338,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1" s="19">
+    <row r="244" ht="15" customHeight="1" s="3">
       <c r="B244" t="n">
         <v>242</v>
       </c>
@@ -22582,7 +22437,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1" s="19">
+    <row r="245" ht="15" customHeight="1" s="3">
       <c r="B245" t="n">
         <v>243</v>
       </c>
@@ -22673,7 +22528,7 @@
         <v>4369.96</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1" s="19">
+    <row r="246" ht="15" customHeight="1" s="3">
       <c r="B246" t="n">
         <v>244</v>
       </c>
@@ -22760,7 +22615,7 @@
         <v>5133.14</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1" s="19">
+    <row r="247" ht="15" customHeight="1" s="3">
       <c r="B247" t="n">
         <v>245</v>
       </c>
@@ -22847,7 +22702,7 @@
         <v>4105.37</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1" s="19">
+    <row r="248" ht="15" customHeight="1" s="3">
       <c r="B248" t="n">
         <v>246</v>
       </c>
@@ -22942,7 +22797,7 @@
         </is>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1" s="19">
+    <row r="249" ht="15" customHeight="1" s="3">
       <c r="B249" t="n">
         <v>247</v>
       </c>
@@ -23029,7 +22884,7 @@
         <v>4331.24</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1" s="19">
+    <row r="250" ht="15" customHeight="1" s="3">
       <c r="B250" t="n">
         <v>248</v>
       </c>
@@ -23116,7 +22971,7 @@
         <v>4332.39</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1" s="19">
+    <row r="251" ht="15" customHeight="1" s="3">
       <c r="B251" t="n">
         <v>249</v>
       </c>
@@ -23207,7 +23062,7 @@
         <v>5540.15</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1" s="19">
+    <row r="252" ht="15" customHeight="1" s="3">
       <c r="B252" t="n">
         <v>250</v>
       </c>
@@ -23294,7 +23149,7 @@
         <v>5935.87</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1" s="19">
+    <row r="253" ht="15" customHeight="1" s="3">
       <c r="B253" t="n">
         <v>251</v>
       </c>
@@ -23381,7 +23236,7 @@
         <v>5748.16</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1" s="19">
+    <row r="254" ht="15" customHeight="1" s="3">
       <c r="B254" t="n">
         <v>252</v>
       </c>
@@ -23472,7 +23327,7 @@
         <v>565.64</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1" s="19">
+    <row r="255" ht="15" customHeight="1" s="3">
       <c r="B255" t="n">
         <v>253</v>
       </c>
@@ -23567,7 +23422,7 @@
         <v>4438.61</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1" s="19">
+    <row r="256" ht="15" customHeight="1" s="3">
       <c r="B256" t="n">
         <v>254</v>
       </c>
@@ -23654,7 +23509,7 @@
         <v>6331.6</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1" s="19">
+    <row r="257" ht="15" customHeight="1" s="3">
       <c r="B257" t="n">
         <v>255</v>
       </c>
@@ -23741,7 +23596,7 @@
         <v>3393.84</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1" s="19">
+    <row r="258" ht="15" customHeight="1" s="3">
       <c r="B258" t="n">
         <v>256</v>
       </c>
@@ -23828,7 +23683,7 @@
         <v>7461.34</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1" s="19">
+    <row r="259" ht="15" customHeight="1" s="3">
       <c r="B259" t="n">
         <v>257</v>
       </c>
@@ -23919,7 +23774,7 @@
         <v>5166.32</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1" s="19">
+    <row r="260" ht="15" customHeight="1" s="3">
       <c r="B260" t="n">
         <v>258</v>
       </c>
@@ -24006,7 +23861,7 @@
         <v>4152.21</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1" s="19">
+    <row r="261" ht="15" customHeight="1" s="3">
       <c r="B261" t="n">
         <v>259</v>
       </c>
@@ -24089,7 +23944,7 @@
         <v>4448.26</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1" s="19">
+    <row r="262" ht="15" customHeight="1" s="3">
       <c r="B262" t="n">
         <v>260</v>
       </c>
@@ -24180,7 +24035,7 @@
         <v>4790.05</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1" s="19">
+    <row r="263" ht="15" customHeight="1" s="3">
       <c r="B263" t="n">
         <v>261</v>
       </c>
@@ -24271,7 +24126,7 @@
         <v>4369.96</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1" s="19">
+    <row r="264" ht="15" customHeight="1" s="3">
       <c r="B264" t="n">
         <v>262</v>
       </c>
@@ -24362,7 +24217,7 @@
         <v>4778.59</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1" s="19">
+    <row r="265" ht="15" customHeight="1" s="3">
       <c r="B265" t="n">
         <v>263</v>
       </c>
@@ -24449,7 +24304,7 @@
         <v>2067.69</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1" s="19">
+    <row r="266" ht="15" customHeight="1" s="3">
       <c r="B266" t="n">
         <v>264</v>
       </c>
@@ -24536,7 +24391,7 @@
         <v>4369.96</v>
       </c>
     </row>
-    <row r="267" ht="15" customHeight="1" s="19">
+    <row r="267" ht="15" customHeight="1" s="3">
       <c r="B267" t="n">
         <v>265</v>
       </c>
@@ -24627,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" ht="15" customHeight="1" s="19">
+    <row r="268" ht="15" customHeight="1" s="3">
       <c r="B268" t="n">
         <v>266</v>
       </c>
@@ -24710,64 +24565,61 @@
         <v>2347.38</v>
       </c>
     </row>
-    <row r="1048566" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048567" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048568" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048569" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048570" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048571" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048572" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048573" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048574" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048575" ht="12.75" customHeight="1" s="19"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="19"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="3"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="3"/>
   </sheetData>
   <autoFilter ref="B2:AH268"/>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="AI1:AI2"/>
   </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" paperSize="9" scale="45" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="C4:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6328125" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" ht="15" customHeight="1" s="19">
-      <c r="C4" s="34" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="19">
-      <c r="C5" s="34" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>